--- a/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.22.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_4_Common_alpha=0.22.xlsx
@@ -34,13 +34,13 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>היי.</t>
+  </si>
+  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>היי.</t>
   </si>
   <si>
     <t>הורה:</t>
@@ -763,21 +763,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -791,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -819,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -847,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -861,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -875,21 +875,21 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -903,10 +903,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -917,7 +917,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -931,10 +931,10 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -945,7 +945,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -959,10 +959,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -987,10 +987,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1001,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -1015,10 +1015,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1043,10 +1043,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1099,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1116,7 +1116,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1127,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1144,7 +1144,7 @@
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1155,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1172,7 +1172,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1197,10 +1197,10 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1211,10 +1211,10 @@
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1225,7 +1225,7 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1239,10 +1239,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1253,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1267,10 +1267,10 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1281,7 +1281,7 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1295,10 +1295,10 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1323,10 +1323,10 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1337,7 +1337,7 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1351,7 +1351,7 @@
         <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1365,10 +1365,10 @@
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1396,7 +1396,7 @@
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1407,7 +1407,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1424,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1438,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1449,7 +1449,7 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1480,7 +1480,7 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1491,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -1505,10 +1505,10 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1519,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1533,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1547,10 +1547,10 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1561,7 +1561,7 @@
         <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1575,10 +1575,10 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1603,10 +1603,10 @@
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1617,7 +1617,7 @@
         <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -1631,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1648,7 +1648,7 @@
         <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1662,7 +1662,7 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1673,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -1687,10 +1687,10 @@
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1701,7 +1701,7 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1718,7 +1718,7 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1729,7 +1729,7 @@
         <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -1771,10 +1771,10 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1785,7 +1785,7 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1799,10 +1799,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1816,7 +1816,7 @@
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1827,7 +1827,7 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -1841,10 +1841,10 @@
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1855,10 +1855,10 @@
         <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1869,10 +1869,10 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -1897,10 +1897,10 @@
         <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1911,10 +1911,10 @@
         <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1925,10 +1925,10 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1939,7 +1939,7 @@
         <v>32</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -1953,10 +1953,10 @@
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1967,7 +1967,7 @@
         <v>43</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -1981,7 +1981,7 @@
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>9</v>
@@ -1995,10 +1995,10 @@
         <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2009,10 +2009,10 @@
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2026,7 +2026,7 @@
         <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2037,10 +2037,10 @@
         <v>113</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2051,10 +2051,10 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2065,7 +2065,7 @@
         <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
         <v>9</v>
@@ -2079,10 +2079,10 @@
         <v>22</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2093,10 +2093,10 @@
         <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2107,7 +2107,7 @@
         <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -2121,10 +2121,10 @@
         <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2135,7 +2135,7 @@
         <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -2152,7 +2152,7 @@
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2163,10 +2163,10 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2177,10 +2177,10 @@
         <v>124</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2191,10 +2191,10 @@
         <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2205,10 +2205,10 @@
         <v>127</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2219,10 +2219,10 @@
         <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2233,10 +2233,10 @@
         <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
